--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Facultate\materii\VVSS\Lab\Proiect\echipa_hehehe\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F131D4-11FF-412A-BE42-2392BC96699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332ECA85-A82F-4108-88B0-B924DA8882A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -231,6 +231,66 @@
   </si>
   <si>
     <t>Programul nu valideaza ca valoarea cu care se face plata este una pozitiva</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java line 46</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java line 19</t>
+  </si>
+  <si>
+    <t>Duplicated String literal</t>
+  </si>
+  <si>
+    <t>Inainte sa apelam  result.get(), apelam result.isEmpty() pentru a opri flow-ul daca result-ul nu este prezent</t>
+  </si>
+  <si>
+    <t>Apelam result.get() fara verificare</t>
+  </si>
+  <si>
+    <t>Optiona.get() apelat fara sa se asigure ca .isPresent() ar returna true</t>
+  </si>
+  <si>
+    <t>"---------" repetat de multe ori</t>
+  </si>
+  <si>
+    <t>"---------" pus intr-o constanta si utilizat folosind strict constanta</t>
+  </si>
+  <si>
+    <t>Clasa anonima poate fi declarata cu lambda</t>
+  </si>
+  <si>
+    <t>Cream clasa anonima manual</t>
+  </si>
+  <si>
+    <t>Cream clasa anonima utilizand lambda</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 61</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 123</t>
+  </si>
+  <si>
+    <t>Cod comentat</t>
+  </si>
+  <si>
+    <t>Era cod comentat</t>
+  </si>
+  <si>
+    <t>L-am sters</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 53</t>
+  </si>
+  <si>
+    <t>Field static updatat din metoda non-statica</t>
+  </si>
+  <si>
+    <t>setTotalAmount era metoda ne-statica</t>
+  </si>
+  <si>
+    <t>setTotalAmount este metoda statica</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1532,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1830,8 +1890,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,54 +2006,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
